--- a/example_data/EMA/label_corrected/dexdor-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/dexdor-epar-product-information_en.xlsx
@@ -3853,7 +3853,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || populations - neonate</t>
+          <t>populations - pediatric || populations - adolescent || populations - neonate</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
